--- a/biology/Zoologie/Aplocheilus_kirchmayeri/Aplocheilus_kirchmayeri.xlsx
+++ b/biology/Zoologie/Aplocheilus_kirchmayeri/Aplocheilus_kirchmayeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplocheilus kirchmayeri est une espèce de poissons de la famille des Aplocheilidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Aplocheilus kirchmayeri a été décrite en 1986 par les ichtyologistes allemands Heinz Otto Berkenkamp (d) et Vollrad Max Friedrich Etzel (d) (1944-2012).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplocheilus kirchmayeri est endémique d'Inde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplocheilus kirchmayeri est endémique d'Inde.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplocheilus kirchmayeri peut mesurer jusqu'à 50 mm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplocheilus kirchmayeri peut mesurer jusqu'à 50 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, kirchmayeri, lui a été donnée en l'honneur de Josef Kirchmayer, l'aquariophile allemand qui a collecté et importé cette espèce et fut le premier à en faire l'élevage[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, kirchmayeri, lui a été donnée en l'honneur de Josef Kirchmayer, l'aquariophile allemand qui a collecté et importé cette espèce et fut le premier à en faire l'élevage.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Aplocheilus kirchmayeri et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplocheilus kirchmayeri, qui en aquariophilie fait partie des killies, est une espèce difficile à maintenir en aquarium[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplocheilus kirchmayeri, qui en aquariophilie fait partie des killies, est une espèce difficile à maintenir en aquarium.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) H. O. Berkenkamp et V. M. F Etzel, « Revision der asiatischen Gattung Aplocheilus McClelland, 1839 (Familie Aploheilidae [sic] Bleeker, 1860) », Deutsche Killifisch Gemeinschaft Journal, Allemagne, vol. 18, no 3,‎ avril 1986, p. 32-43 (ISSN 0179-4957).</t>
         </is>
